--- a/config_debug/activity_year_config_new.xlsx
+++ b/config_debug/activity_year_config_new.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="390">
   <si>
     <t>id|行号</t>
   </si>
@@ -1472,24 +1472,6 @@
   </si>
   <si>
     <t>21:30拆福卡</t>
-  </si>
-  <si>
-    <t>有奖问答</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_005_yzqj</t>
-  </si>
-  <si>
-    <t>"act_005_yzqj","panel"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_1000070</t>
-  </si>
-  <si>
-    <t>2020/10/20 8::00</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2169,7 +2151,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="P65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7334,60 +7316,16 @@
       </c>
     </row>
     <row r="96" spans="1:22" s="66" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A96" s="66">
-        <v>95</v>
-      </c>
-      <c r="B96" s="67">
-        <v>95</v>
-      </c>
-      <c r="C96" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="66">
-        <v>0</v>
-      </c>
-      <c r="E96" s="66">
-        <v>1</v>
-      </c>
-      <c r="F96" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="G96" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="H96" s="66">
-        <v>0</v>
-      </c>
-      <c r="I96" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="J96" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="N96" s="66">
-        <v>1</v>
-      </c>
-      <c r="P96" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q96" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="R96" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="S96" s="66">
-        <v>1603152000</v>
-      </c>
-      <c r="T96" s="71">
-        <v>44130.999988425923</v>
-      </c>
-      <c r="U96" s="66">
-        <v>1603727999</v>
-      </c>
-      <c r="V96" s="70" t="s">
-        <v>393</v>
-      </c>
+      <c r="B96" s="67"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="65"/>
+      <c r="T96" s="71"/>
+      <c r="V96" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U71"/>
